--- a/Chips Market Analysis.xlsx
+++ b/Chips Market Analysis.xlsx
@@ -1,23 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name=" 分析数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+  <si>
+    <t>紫光集团</t>
+  </si>
+  <si>
+    <t>展讯通信</t>
+  </si>
+  <si>
+    <t>中芯国际</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海思半导体 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">瑞芯微电子 </t>
+  </si>
+  <si>
+    <t>因特尔15亿美元持有20%股份</t>
+  </si>
+  <si>
+    <t>中国主要芯片代工商。竞争力没有展讯有优势</t>
+  </si>
+  <si>
+    <t>华为全资子公司，中国第一大芯片设计公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与因特尔联手 </t>
+  </si>
+  <si>
+    <t>2015年介绍</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>芯片设计</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>芯片加工</t>
+  </si>
+  <si>
+    <t>综艺股份</t>
+  </si>
+  <si>
+    <t>与中科院成立“龙芯”，持股49%</t>
+  </si>
+  <si>
+    <t>大唐电信</t>
+  </si>
+  <si>
+    <t>控股85%的大唐微电子开发SIM和UIM卡。与中芯国际开发手机核心芯片</t>
+  </si>
+  <si>
+    <t>清华同方</t>
+  </si>
+  <si>
+    <t>清华微电子与大唐微电子设计二代身份证芯片</t>
+  </si>
+  <si>
+    <t>上海科技</t>
+  </si>
+  <si>
+    <t>苏州国芯科技，由摩托罗拉转让32位RISC微处理器技术。自主知识产权“汉芯一号”</t>
+  </si>
+  <si>
+    <t>张江高科</t>
+  </si>
+  <si>
+    <t>持有中芯国际股份</t>
+  </si>
+  <si>
+    <t>上海贝岭</t>
+  </si>
+  <si>
+    <t>参股上海华虹NEC</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>专业从事CMOS，BiCMOS集成电路设计，制造和销售</t>
+  </si>
+  <si>
+    <t>长电科技</t>
+  </si>
+  <si>
+    <t>高亮度白光芯片为新一代环保电器照明</t>
+  </si>
+  <si>
+    <t>方大</t>
+  </si>
+  <si>
+    <t>高亮度照明芯片</t>
+  </si>
+  <si>
+    <t>华微电子</t>
+  </si>
+  <si>
+    <t>中国最大的功率半导体产品。与飞利浦合作</t>
+  </si>
+  <si>
+    <t>首钢股份</t>
+  </si>
+  <si>
+    <t>8英寸0.25毫米集成电路</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,15 +164,121 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" name="2015年介绍" dataDxfId="3"/>
+    <tableColumn id="3" name="分类" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +567,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17">
+      <formula1>",芯片设计, 芯片加工, 其他"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>